--- a/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.73.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1030,11 +1030,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1049,7 +1045,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1065,33 +1061,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="O9" t="n">
-        <v>52.38</v>
+        <v>52.6</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.95</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1103,7 +1099,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1111,14 +1111,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1133,34 +1133,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="O10" t="n">
-        <v>52.31</v>
+        <v>52.38</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_33_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1172,11 +1172,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1184,14 +1180,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1206,34 +1202,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="O11" t="n">
-        <v>52.28</v>
+        <v>52.31</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.97</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_33_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1245,7 +1241,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1253,14 +1253,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1275,34 +1275,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="O12" t="n">
-        <v>51.79</v>
+        <v>52.28</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>0.97</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1349,29 +1349,29 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="O13" t="n">
-        <v>51.76</v>
+        <v>51.79</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_27_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1391,14 +1391,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1413,34 +1413,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="O14" t="n">
-        <v>51.72</v>
+        <v>51.76</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.77</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_27_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1460,14 +1460,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1482,34 +1482,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="O15" t="n">
-        <v>51.48</v>
+        <v>51.72</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>2.77</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_06_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1556,20 +1556,20 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="O16" t="n">
-        <v>51.31</v>
+        <v>51.48</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_06_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1578,7 +1578,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1590,11 +1590,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1602,14 +1598,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1624,34 +1620,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="O17" t="n">
-        <v>51.11</v>
+        <v>51.31</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1698,33 +1694,33 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="O18" t="n">
-        <v>50.74</v>
+        <v>51.11</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1755,7 +1751,7 @@
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1771,33 +1767,33 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="O19" t="n">
-        <v>50.33</v>
+        <v>50.74</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.16</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1844,33 +1840,33 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="O20" t="n">
-        <v>50.28</v>
+        <v>50.33</v>
       </c>
       <c r="P20" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.78</v>
+        <v>0.16</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1882,7 +1878,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1890,14 +1890,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1912,34 +1912,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="O21" t="n">
-        <v>49.69</v>
+        <v>50.28</v>
       </c>
       <c r="P21" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.89</v>
+        <v>2.78</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_52_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1951,11 +1951,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1963,7 +1959,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1985,34 +1981,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
-        <v>49.48</v>
+        <v>49.69</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_52_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2059,7 +2055,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -2068,24 +2064,24 @@
         <v>1.74</v>
       </c>
       <c r="O23" t="n">
-        <v>49.37</v>
+        <v>49.48</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.39</v>
+        <v>0.85</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2132,29 +2128,102 @@
         </is>
       </c>
       <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O24" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
         <v>3</v>
       </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.63</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>48.68</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>0.6</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.73.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,14 +689,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -711,34 +711,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="O4" t="n">
-        <v>53.37</v>
+        <v>53.49</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>2.54</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_03_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_06_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -780,34 +780,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="O5" t="n">
-        <v>53.13</v>
+        <v>53.37</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.28</v>
+        <v>0.74</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_03_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -850,33 +850,33 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="O6" t="n">
-        <v>53.12</v>
+        <v>53.16</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.56</v>
+        <v>0.58</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_50_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,14 +896,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -918,34 +918,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="O7" t="n">
-        <v>52.96</v>
+        <v>53.13</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.99</v>
+        <v>0.28</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_39_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -957,11 +957,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -976,7 +972,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -992,33 +988,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="O8" t="n">
-        <v>52.7</v>
+        <v>53.12</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1038,14 +1034,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1060,34 +1056,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="O9" t="n">
-        <v>52.6</v>
+        <v>52.96</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>0.99</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_39_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1099,11 +1095,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1118,7 +1110,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1140,27 +1132,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="O10" t="n">
-        <v>52.38</v>
+        <v>52.86</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_57_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1180,14 +1172,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1202,34 +1194,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="O11" t="n">
-        <v>52.31</v>
+        <v>52.84</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>0.31</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_33_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_42_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1241,11 +1233,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1260,7 +1248,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1282,27 +1270,27 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="O12" t="n">
-        <v>52.28</v>
+        <v>52.79</v>
       </c>
       <c r="P12" t="n">
         <v>0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_21_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1322,14 +1310,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1344,34 +1332,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>51.79</v>
+        <v>52.73</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>0.86</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_28_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1383,7 +1371,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1391,14 +1383,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1413,34 +1405,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="O14" t="n">
-        <v>51.76</v>
+        <v>52.7</v>
       </c>
       <c r="P14" t="n">
         <v>0.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_27_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1467,7 +1459,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1489,27 +1481,27 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="O15" t="n">
-        <v>51.72</v>
+        <v>52.6</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.77</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1521,7 +1513,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1529,14 +1525,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1551,34 +1547,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="O16" t="n">
-        <v>51.48</v>
+        <v>52.38</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_06_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1598,14 +1594,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1620,34 +1616,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31</v>
+        <v>52.34</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1659,11 +1655,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1671,14 +1663,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1693,34 +1685,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
       <c r="O18" t="n">
-        <v>51.11</v>
+        <v>52.31</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_33_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1751,7 +1743,7 @@
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1767,33 +1759,33 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="O19" t="n">
-        <v>50.74</v>
+        <v>52.28</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>0.97</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1805,11 +1797,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1824,7 +1812,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1840,33 +1828,33 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="O20" t="n">
-        <v>50.33</v>
+        <v>52.09</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_14_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1878,11 +1866,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1890,14 +1874,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1912,34 +1896,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="O21" t="n">
-        <v>50.28</v>
+        <v>52.01</v>
       </c>
       <c r="P21" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.78</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_57_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1966,7 +1950,7 @@
         <v>128</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I22" t="n">
         <v>50</v>
@@ -1986,20 +1970,20 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="O22" t="n">
-        <v>49.69</v>
+        <v>51.94</v>
       </c>
       <c r="P22" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.89</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_52_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_48_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2008,7 +1992,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2020,11 +2004,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2032,14 +2012,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>128</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I23" t="n">
         <v>50</v>
@@ -2054,34 +2034,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.74</v>
+        <v>1.09</v>
       </c>
       <c r="O23" t="n">
-        <v>49.48</v>
+        <v>51.79</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.85</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2093,11 +2073,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2105,14 +2081,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>128</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
         <v>50</v>
@@ -2127,103 +2103,886 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="O24" t="n">
-        <v>49.37</v>
+        <v>51.76</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.39</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_27_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>500</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O25" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_40_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>200</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O27" t="n">
+        <v>51.48</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_06_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>128</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O28" t="n">
+        <v>51.31</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>128</v>
+      </c>
+      <c r="H29" t="n">
+        <v>200</v>
+      </c>
+      <c r="I29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O29" t="n">
+        <v>51.11</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>128</v>
+      </c>
+      <c r="H30" t="n">
+        <v>200</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O30" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>128</v>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>50.33</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>128</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O32" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>128</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>49.69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_52_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>128</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O34" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>128</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O35" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>WH</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>128</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G36" t="n">
+        <v>128</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
         <v>3</v>
       </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
         <v>1.63</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O36" t="n">
         <v>48.68</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P36" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q36" t="n">
         <v>0.6</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.73.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01>AllRes_53.73.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -592,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_28_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -665,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_28_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -681,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -734,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_06_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -750,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -780,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -819,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -872,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_50_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1010,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1026,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1056,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1095,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1148,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_57_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1164,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1217,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_42_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1233,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1286,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_21_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1302,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1355,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_28_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1428,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1444,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1497,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1570,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1586,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1639,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1655,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1685,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1781,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1797,7 +1889,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1850,7 +1946,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_14_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1866,7 +1964,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1896,7 +1998,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
@@ -1935,7 +2039,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1965,7 +2073,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
@@ -2004,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2034,7 +2148,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2073,7 +2189,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2103,7 +2223,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
@@ -2142,7 +2264,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2195,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2211,7 +2339,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2241,7 +2373,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
@@ -2280,7 +2414,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2310,7 +2448,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
@@ -2349,7 +2489,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2379,7 +2523,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
@@ -2475,7 +2621,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2548,7 +2696,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2621,7 +2771,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2694,7 +2846,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2710,7 +2864,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2740,7 +2898,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
@@ -2836,7 +2996,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2909,7 +3071,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2982,7 +3146,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
